--- a/Data/2020_09_08_Bohannan_16S-v4_pmoA_primers.xlsx
+++ b/Data/2020_09_08_Bohannan_16S-v4_pmoA_primers.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
   <si>
     <t xml:space="preserve">IDT Plate Well </t>
   </si>
@@ -42,15 +41,30 @@
     <t xml:space="preserve">Primer vol (uL)</t>
   </si>
   <si>
+    <t xml:space="preserve">Added Water (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Volume (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Conc (uM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Vol (uL)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Target Conc (uM)</t>
   </si>
   <si>
-    <t xml:space="preserve">Target Vol (uL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primer Vol (uL)</t>
   </si>
   <si>
+    <t xml:space="preserve">Water Vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Vol</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
@@ -451,6 +465,27 @@
   </si>
   <si>
     <t xml:space="preserve">CAAGCAGAAGACGGCATACGAGATcaactccaAGTCAGTCAGCCCCGGMGCAACGTCYTTACC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R primer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diluted cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F/R</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -675,16 +710,16 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -829,13 +864,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.13"/>
@@ -875,28 +910,42 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>25</v>
@@ -905,36 +954,52 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <f aca="false">G2+H2</f>
+        <v>57</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <f aca="false">(F2*G2)/I2</f>
+        <v>2.19298245614035</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <f aca="false">(H2*I2)/F2</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <f aca="false">ROUND(J2,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <f aca="false">(K2*F2)/I2</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="M2" s="1" t="n">
+        <f aca="false">ROUND((K2*L2)/J2, 0)</f>
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <f aca="false">ROUND(K2-(M2*2), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <f aca="false">(M2*2)+N2</f>
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <f aca="false">(J2*M2)/O2</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F3" s="17" t="n">
         <v>25</v>
@@ -942,37 +1007,20 @@
       <c r="G3" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <f aca="false">(H3*I3)/F3</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <f aca="false">ROUND(J3,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <f aca="false">(K3*F3)/I3</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F4" s="17" t="n">
         <v>25</v>
@@ -980,37 +1028,20 @@
       <c r="G4" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <f aca="false">(H4*I4)/F4</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <f aca="false">ROUND(J4,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <f aca="false">(K4*F4)/I4</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F5" s="17" t="n">
         <v>25</v>
@@ -1018,37 +1049,20 @@
       <c r="G5" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <f aca="false">(H5*I5)/F5</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <f aca="false">ROUND(J5,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <f aca="false">(K5*F5)/I5</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" s="17" t="n">
         <v>25</v>
@@ -1056,37 +1070,20 @@
       <c r="G6" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <f aca="false">(H6*I6)/F6</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <f aca="false">ROUND(J6,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <f aca="false">(K6*F6)/I6</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" s="17" t="n">
         <v>25</v>
@@ -1094,37 +1091,20 @@
       <c r="G7" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <f aca="false">(H7*I7)/F7</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <f aca="false">ROUND(J7,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <f aca="false">(K7*F7)/I7</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="17" t="n">
         <v>25</v>
@@ -1132,37 +1112,20 @@
       <c r="G8" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <f aca="false">(H8*I8)/F8</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <f aca="false">ROUND(J8,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <f aca="false">(K8*F8)/I8</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F9" s="17" t="n">
         <v>25</v>
@@ -1170,40 +1133,23 @@
       <c r="G9" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1" t="n">
-        <f aca="false">(H9*I9)/F9</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K9" s="1" t="n">
-        <f aca="false">ROUND(J9,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <f aca="false">(K9*F9)/I9</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F10" s="17" t="n">
         <v>25</v>
@@ -1211,24 +1157,7 @@
       <c r="G10" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <f aca="false">(H10*I10)/F10</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <f aca="false">ROUND(J10,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <f aca="false">(K10*F10)/I10</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17"/>
@@ -1237,23 +1166,20 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="K11" s="1" t="n">
-        <f aca="false">ROUND(J11,2)</f>
-        <v>0</v>
-      </c>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="19" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F12" s="17" t="n">
         <v>25</v>
@@ -1261,37 +1187,20 @@
       <c r="G12" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1" t="n">
-        <f aca="false">(H12*I12)/F12</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K12" s="1" t="n">
-        <f aca="false">ROUND(J12,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <f aca="false">(K12*F12)/I12</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F13" s="17" t="n">
         <v>25</v>
@@ -1299,37 +1208,20 @@
       <c r="G13" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <f aca="false">(H13*I13)/F13</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <f aca="false">ROUND(J13,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <f aca="false">(K13*F13)/I13</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="19" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F14" s="17" t="n">
         <v>25</v>
@@ -1337,37 +1229,20 @@
       <c r="G14" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1" t="n">
-        <f aca="false">(H14*I14)/F14</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K14" s="1" t="n">
-        <f aca="false">ROUND(J14,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <f aca="false">(K14*F14)/I14</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F15" s="17" t="n">
         <v>25</v>
@@ -1375,37 +1250,20 @@
       <c r="G15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <f aca="false">(H15*I15)/F15</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <f aca="false">ROUND(J15,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <f aca="false">(K15*F15)/I15</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F16" s="17" t="n">
         <v>25</v>
@@ -1413,37 +1271,20 @@
       <c r="G16" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I16" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1" t="n">
-        <f aca="false">(H16*I16)/F16</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <f aca="false">ROUND(J16,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <f aca="false">(K16*F16)/I16</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F17" s="17" t="n">
         <v>25</v>
@@ -1451,37 +1292,20 @@
       <c r="G17" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <f aca="false">(H17*I17)/F17</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <f aca="false">ROUND(J17,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <f aca="false">(K17*F17)/I17</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F18" s="17" t="n">
         <v>25</v>
@@ -1489,40 +1313,23 @@
       <c r="G18" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <f aca="false">(H18*I18)/F18</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <f aca="false">ROUND(J18,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <f aca="false">(K18*F18)/I18</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F19" s="17" t="n">
         <v>25</v>
@@ -1530,28 +1337,11 @@
       <c r="G19" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H19" s="1" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <f aca="false">(H19*I19)/F19</f>
-        <v>0.5232</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <f aca="false">ROUND(J19,2)</f>
-        <v>0.52</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <f aca="false">(K19*F19)/I19</f>
-        <v>1.08333333333333</v>
-      </c>
+      <c r="Q19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -1559,23 +1349,20 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
-      <c r="K20" s="1" t="n">
-        <f aca="false">ROUND(J20,2)</f>
-        <v>0</v>
-      </c>
+      <c r="Q20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F21" s="17" t="n">
         <v>50</v>
@@ -1584,64 +1371,55 @@
         <v>5</v>
       </c>
       <c r="H21" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">G21+H21</f>
+        <v>57</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">(F21*G21)/I21</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <f aca="false">(H21*I21)/F21</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <f aca="false">ROUND(J21,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <f aca="false">(K21*F21)/I21</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M21" s="1" t="n">
-        <f aca="false">G21/K21</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K21*L21)/J21, 0)</f>
+        <v>3</v>
       </c>
       <c r="N21" s="1" t="n">
-        <f aca="false">1 + (8/12)</f>
-        <v>1.66666666666667</v>
+        <f aca="false">ROUND(K21-(M21*2), 0)</f>
+        <v>6</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>50</v>
+        <f aca="false">(M21*2)+N21</f>
+        <v>12</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Q21" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <f aca="false">SUM(P21:R21)</f>
-        <v>11.92</v>
-      </c>
-      <c r="T21" s="1" t="n">
-        <f aca="false">(O21*P21)/S21</f>
-        <v>1.09060402684564</v>
+        <f aca="false">(J21*M21)/O21</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">I21/M21</f>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F22" s="17" t="n">
         <v>50</v>
@@ -1650,40 +1428,55 @@
         <v>5</v>
       </c>
       <c r="H22" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">G22+H22</f>
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <f aca="false">(F22*G22)/I22</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L22" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <f aca="false">(H22*I22)/F22</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <f aca="false">ROUND(J22,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <f aca="false">(K22*F22)/I22</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M22" s="1" t="n">
-        <f aca="false">G22/K22</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K22*L22)/J22, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <f aca="false">ROUND(K22-(M22*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <f aca="false">(M22*2)+N22</f>
+        <v>12</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <f aca="false">(J22*M22)/O22</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">I22/M22</f>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F23" s="17" t="n">
         <v>50</v>
@@ -1692,40 +1485,55 @@
         <v>5</v>
       </c>
       <c r="H23" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <f aca="false">G23+H23</f>
+        <v>57</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <f aca="false">(F23*G23)/I23</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <f aca="false">(H23*I23)/F23</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <f aca="false">ROUND(J23,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <f aca="false">(K23*F23)/I23</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M23" s="1" t="n">
-        <f aca="false">G23/K23</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K23*L23)/J23, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <f aca="false">ROUND(K23-(M23*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <f aca="false">(M23*2)+N23</f>
+        <v>12</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <f aca="false">(J23*M23)/O23</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">I23/M23</f>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F24" s="17" t="n">
         <v>50</v>
@@ -1734,40 +1542,55 @@
         <v>5</v>
       </c>
       <c r="H24" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <f aca="false">G24+H24</f>
+        <v>57</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <f aca="false">(F24*G24)/I24</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L24" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <f aca="false">(H24*I24)/F24</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <f aca="false">ROUND(J24,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <f aca="false">(K24*F24)/I24</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M24" s="1" t="n">
-        <f aca="false">G24/K24</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K24*L24)/J24, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <f aca="false">ROUND(K24-(M24*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <f aca="false">(M24*2)+N24</f>
+        <v>12</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <f aca="false">(J24*M24)/O24</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">I24/M24</f>
+        <v>19</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="22" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F25" s="17" t="n">
         <v>50</v>
@@ -1776,43 +1599,58 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <f aca="false">G25+H25</f>
+        <v>57</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <f aca="false">(F25*G25)/I25</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <f aca="false">(H25*I25)/F25</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <f aca="false">ROUND(J25,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <f aca="false">(K25*F25)/I25</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M25" s="1" t="n">
-        <f aca="false">G25/K25</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K25*L25)/J25, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <f aca="false">ROUND(K25-(M25*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <f aca="false">(M25*2)+N25</f>
+        <v>12</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <f aca="false">(J25*M25)/O25</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">I25/M25</f>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F26" s="17" t="n">
         <v>50</v>
@@ -1821,26 +1659,41 @@
         <v>5</v>
       </c>
       <c r="H26" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <f aca="false">G26+H26</f>
+        <v>57</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <f aca="false">(F26*G26)/I26</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <f aca="false">(H26*I26)/F26</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <f aca="false">ROUND(J26,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <f aca="false">(K26*F26)/I26</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M26" s="1" t="n">
-        <f aca="false">G26/K26</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K26*L26)/J26, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <f aca="false">ROUND(K26-(M26*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <f aca="false">(M26*2)+N26</f>
+        <v>12</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <f aca="false">(J26*M26)/O26</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">I26/M26</f>
+        <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,23 +1703,20 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
-      <c r="K27" s="1" t="n">
-        <f aca="false">ROUND(J27,2)</f>
-        <v>0</v>
-      </c>
+      <c r="Q27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="23" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F28" s="17" t="n">
         <v>50</v>
@@ -1875,40 +1725,55 @@
         <v>5</v>
       </c>
       <c r="H28" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">G28+H28</f>
+        <v>57</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">(F28*G28)/I28</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L28" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1" t="n">
-        <f aca="false">(H28*I28)/F28</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K28" s="1" t="n">
-        <f aca="false">ROUND(J28,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <f aca="false">(K28*F28)/I28</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M28" s="1" t="n">
-        <f aca="false">G28/K28</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K28*L28)/J28, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <f aca="false">ROUND(K28-(M28*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <f aca="false">(M28*2)+N28</f>
+        <v>12</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <f aca="false">(J28*M28)/O28</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">I28/M28</f>
+        <v>19</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="23" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F29" s="17" t="n">
         <v>50</v>
@@ -1917,40 +1782,55 @@
         <v>5</v>
       </c>
       <c r="H29" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <f aca="false">G29+H29</f>
+        <v>57</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <f aca="false">(F29*G29)/I29</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1" t="n">
-        <f aca="false">(H29*I29)/F29</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K29" s="1" t="n">
-        <f aca="false">ROUND(J29,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <f aca="false">(K29*F29)/I29</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M29" s="1" t="n">
-        <f aca="false">G29/K29</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K29*L29)/J29, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <f aca="false">ROUND(K29-(M29*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <f aca="false">(M29*2)+N29</f>
+        <v>12</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <f aca="false">(J29*M29)/O29</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">I29/M29</f>
+        <v>19</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F30" s="17" t="n">
         <v>50</v>
@@ -1959,40 +1839,55 @@
         <v>5</v>
       </c>
       <c r="H30" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <f aca="false">G30+H30</f>
+        <v>57</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">(F30*G30)/I30</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <f aca="false">(H30*I30)/F30</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <f aca="false">ROUND(J30,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <f aca="false">(K30*F30)/I30</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M30" s="1" t="n">
-        <f aca="false">G30/K30</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K30*L30)/J30, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <f aca="false">ROUND(K30-(M30*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <f aca="false">(M30*2)+N30</f>
+        <v>12</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <f aca="false">(J30*M30)/O30</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">I30/M30</f>
+        <v>19</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="23" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F31" s="17" t="n">
         <v>50</v>
@@ -2001,40 +1896,55 @@
         <v>5</v>
       </c>
       <c r="H31" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <f aca="false">G31+H31</f>
+        <v>57</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <f aca="false">(F31*G31)/I31</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <f aca="false">(H31*I31)/F31</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <f aca="false">ROUND(J31,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <f aca="false">(K31*F31)/I31</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M31" s="1" t="n">
-        <f aca="false">G31/K31</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K31*L31)/J31, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <f aca="false">ROUND(K31-(M31*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <f aca="false">(M31*2)+N31</f>
+        <v>12</v>
+      </c>
+      <c r="P31" s="1" t="n">
+        <f aca="false">(J31*M31)/O31</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">I31/M31</f>
+        <v>19</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F32" s="17" t="n">
         <v>50</v>
@@ -2043,40 +1953,55 @@
         <v>5</v>
       </c>
       <c r="H32" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <f aca="false">G32+H32</f>
+        <v>57</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <f aca="false">(F32*G32)/I32</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L32" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <f aca="false">(H32*I32)/F32</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K32" s="1" t="n">
-        <f aca="false">ROUND(J32,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L32" s="1" t="n">
-        <f aca="false">(K32*F32)/I32</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M32" s="1" t="n">
-        <f aca="false">G32/K32</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K32*L32)/J32, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <f aca="false">ROUND(K32-(M32*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <f aca="false">(M32*2)+N32</f>
+        <v>12</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <f aca="false">(J32*M32)/O32</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">I32/M32</f>
+        <v>19</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F33" s="17" t="n">
         <v>50</v>
@@ -2085,40 +2010,55 @@
         <v>5</v>
       </c>
       <c r="H33" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <f aca="false">G33+H33</f>
+        <v>57</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <f aca="false">(F33*G33)/I33</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L33" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <f aca="false">(H33*I33)/F33</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <f aca="false">ROUND(J33,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <f aca="false">(K33*F33)/I33</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M33" s="1" t="n">
-        <f aca="false">G33/K33</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K33*L33)/J33, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <f aca="false">ROUND(K33-(M33*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <f aca="false">(M33*2)+N33</f>
+        <v>12</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <f aca="false">(J33*M33)/O33</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">I33/M33</f>
+        <v>19</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F34" s="17" t="n">
         <v>50</v>
@@ -2127,40 +2067,55 @@
         <v>5</v>
       </c>
       <c r="H34" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <f aca="false">G34+H34</f>
+        <v>57</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <f aca="false">(F34*G34)/I34</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L34" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1" t="n">
-        <f aca="false">(H34*I34)/F34</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K34" s="1" t="n">
-        <f aca="false">ROUND(J34,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <f aca="false">(K34*F34)/I34</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M34" s="1" t="n">
-        <f aca="false">G34/K34</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K34*L34)/J34, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <f aca="false">ROUND(K34-(M34*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <f aca="false">(M34*2)+N34</f>
+        <v>12</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <f aca="false">(J34*M34)/O34</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">I34/M34</f>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F35" s="17" t="n">
         <v>50</v>
@@ -2169,40 +2124,55 @@
         <v>5</v>
       </c>
       <c r="H35" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <f aca="false">G35+H35</f>
+        <v>57</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <f aca="false">(F35*G35)/I35</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L35" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <f aca="false">(H35*I35)/F35</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <f aca="false">ROUND(J35,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <f aca="false">(K35*F35)/I35</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M35" s="1" t="n">
-        <f aca="false">G35/K35</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K35*L35)/J35, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <f aca="false">ROUND(K35-(M35*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <f aca="false">(M35*2)+N35</f>
+        <v>12</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <f aca="false">(J35*M35)/O35</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">I35/M35</f>
+        <v>19</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="23" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F36" s="17" t="n">
         <v>50</v>
@@ -2211,40 +2181,55 @@
         <v>5</v>
       </c>
       <c r="H36" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">G36+H36</f>
+        <v>57</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">(F36*G36)/I36</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L36" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1" t="n">
-        <f aca="false">(H36*I36)/F36</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <f aca="false">ROUND(J36,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <f aca="false">(K36*F36)/I36</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M36" s="1" t="n">
-        <f aca="false">G36/K36</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K36*L36)/J36, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <f aca="false">ROUND(K36-(M36*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <f aca="false">(M36*2)+N36</f>
+        <v>12</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <f aca="false">(J36*M36)/O36</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">I36/M36</f>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="23" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F37" s="17" t="n">
         <v>50</v>
@@ -2253,40 +2238,55 @@
         <v>5</v>
       </c>
       <c r="H37" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">G37+H37</f>
+        <v>57</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">(F37*G37)/I37</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L37" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1" t="n">
-        <f aca="false">(H37*I37)/F37</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <f aca="false">ROUND(J37,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <f aca="false">(K37*F37)/I37</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M37" s="1" t="n">
-        <f aca="false">G37/K37</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K37*L37)/J37, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <f aca="false">ROUND(K37-(M37*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <f aca="false">(M37*2)+N37</f>
+        <v>12</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <f aca="false">(J37*M37)/O37</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">I37/M37</f>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="23" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F38" s="17" t="n">
         <v>50</v>
@@ -2295,43 +2295,58 @@
         <v>5</v>
       </c>
       <c r="H38" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <f aca="false">G38+H38</f>
+        <v>57</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <f aca="false">(F38*G38)/I38</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L38" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <f aca="false">(H38*I38)/F38</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <f aca="false">ROUND(J38,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <f aca="false">(K38*F38)/I38</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M38" s="1" t="n">
-        <f aca="false">G38/K38</f>
-        <v>19.2307692307692</v>
+        <f aca="false">ROUND((K38*L38)/J38, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <f aca="false">ROUND(K38-(M38*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <f aca="false">(M38*2)+N38</f>
+        <v>12</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <f aca="false">(J38*M38)/O38</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">I38/M38</f>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F39" s="17" t="n">
         <v>50</v>
@@ -2340,31 +2355,46 @@
         <v>5</v>
       </c>
       <c r="H39" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <f aca="false">G39+H39</f>
+        <v>57</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <f aca="false">(F39*G39)/I39</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L39" s="1" t="n">
         <v>1.09</v>
       </c>
-      <c r="I39" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <f aca="false">(H39*I39)/F39</f>
-        <v>0.2616</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <f aca="false">ROUND(J39,2)</f>
-        <v>0.26</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <f aca="false">(K39*F39)/I39</f>
-        <v>1.08333333333333</v>
-      </c>
       <c r="M39" s="1" t="n">
-        <f aca="false">G39/K39</f>
-        <v>19.2307692307692</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">ROUND((K39*L39)/J39, 0)</f>
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <f aca="false">ROUND(K39-(M39*2), 0)</f>
+        <v>6</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <f aca="false">(M39*2)+N39</f>
+        <v>12</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <f aca="false">(J39*M39)/O39</f>
+        <v>1.09649122807018</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">I39/M39</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2383,120 +2413,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A5:O14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="6.94"/>
+  </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="n">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="n">
+        <f aca="false">SUM(E1:E3)</f>
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="I5" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="L5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
-        <v>103</v>
+      <c r="P5" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>135</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>104</v>
+        <v>139</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>132</v>
@@ -2505,564 +2586,433 @@
         <v>136</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P8" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">57 - SUM(E9:P9)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">57 - SUM(E10:P10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">57 - SUM(E11:P11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">57 - SUM(E12:P12)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">57 - SUM(E13:P13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">57 - SUM(E14:P14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">57 - SUM(E9:E14)</f>
+        <v>21</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">57 - SUM(F9:F14)</f>
+        <v>21</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">57 - SUM(G9:G14)</f>
+        <v>21</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">57 - SUM(H9:H14)</f>
+        <v>21</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">57 - SUM(I9:I14)</f>
+        <v>21</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">57 - SUM(J9:J14)</f>
+        <v>39</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">57 - SUM(K9:K14)</f>
+        <v>39</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">57 - SUM(L9:L14)</f>
+        <v>39</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">57 - SUM(M9:M14)</f>
+        <v>39</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">57 - SUM(N9:N14)</f>
+        <v>39</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">57 - SUM(O9:O14)</f>
+        <v>39</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">57 - SUM(P9:P14)</f>
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Data/2020_09_08_Bohannan_16S-v4_pmoA_primers.xlsx
+++ b/Data/2020_09_08_Bohannan_16S-v4_pmoA_primers.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet4_2" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="187">
   <si>
     <t xml:space="preserve">IDT Plate Well </t>
   </si>
@@ -491,6 +494,9 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">Remaining F primer</t>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
@@ -510,17 +516,148 @@
   </si>
   <si>
     <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining R primer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Primer set Conc (uM)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Vol (uL)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">st</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Primer Set Diluted Conc (uM)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction Vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template Vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Mix Vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other primer vol (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction Conc (uM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer Vol uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer conc uM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer uM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer uL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final uM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primer Dilution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Master Mix (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template (uL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining (uL)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -558,8 +695,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +745,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -689,7 +840,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -786,6 +937,46 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1407,6 +1598,16 @@
         <f aca="false">I21/M21</f>
         <v>19</v>
       </c>
+      <c r="R21" s="1" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <f aca="false">(P21*R21)/S21</f>
+        <v>0.504385964912281</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="22" t="s">
@@ -2413,604 +2614,1816 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="7.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <f aca="false">SUM(F1:F3)</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" s="24" customFormat="true" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D7" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">57 - SUM(F9:Q9)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">57 - SUM(F10:Q10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">57 - SUM(F11:Q11)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">57 - SUM(F12:Q12)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">57 - SUM(F13:Q13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">57 - SUM(F14:Q14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">57 - SUM(F9:F14)</f>
+        <v>21</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">57 - SUM(G9:G14)</f>
+        <v>21</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">57 - SUM(H9:H14)</f>
+        <v>21</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">57 - SUM(I9:I14)</f>
+        <v>21</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">57 - SUM(J9:J14)</f>
+        <v>21</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">57 - SUM(K9:K14)</f>
+        <v>39</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">57 - SUM(L9:L14)</f>
+        <v>39</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">57 - SUM(M9:M14)</f>
+        <v>39</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">57 - SUM(N9:N14)</f>
+        <v>39</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">57 - SUM(O9:O14)</f>
+        <v>39</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">57 - SUM(P9:P14)</f>
+        <v>39</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">57 - SUM(Q9:Q14)</f>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="28" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>149</v>
+    <row r="1" s="26" customFormat="true" ht="47.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>149</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">(H2*I2)/J2</f>
+        <v>6.57894736842105</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">(L2*M2)/K2</f>
+        <v>1.9</v>
+      </c>
+      <c r="Q2" s="28" t="n">
+        <f aca="false">M2-SUM(N2:P2)</f>
+        <v>5.6</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">(P2*K2)/SUM(N2:Q2)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>149</v>
+      <c r="A3" s="1"/>
+      <c r="B3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">(H3*I3)/J3</f>
+        <v>2.19298245614035</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">(L3*M3)/K3</f>
+        <v>5.7</v>
+      </c>
+      <c r="Q3" s="28" t="n">
+        <f aca="false">M3-SUM(N3:P3)</f>
+        <v>1.8</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">(P3*K3)/SUM(N3:P3)</f>
+        <v>0.538793103448276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="0" t="n">
-        <f aca="false">SUM(E1:E3)</f>
-        <v>12</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>3</v>
+      <c r="K4" s="0" t="n">
+        <f aca="false">(H4*I4)/J4</f>
+        <v>2.19298245614035</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">(L4*M4)/K4</f>
+        <v>5.7</v>
+      </c>
+      <c r="Q4" s="28" t="n">
+        <f aca="false">M4-SUM(N4:P4)</f>
+        <v>1.8</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">(P4*K4)/SUM(N4:P4)</f>
+        <v>0.538793103448276</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>5</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>4</v>
+        <v>4.3859649122807</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>7</v>
+        <f aca="false">(H5*I5)/J5</f>
+        <v>4.3859649122807</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>9</v>
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="0" t="s">
+        <f aca="false">(L5*M5)/K5</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q5" s="28" t="n">
+        <f aca="false">M5-SUM(N5:P5)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">(P5*K5)/SUM(N5:P5)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">(H6*I6)/J6</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">(L6*M6)/K6</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q6" s="28" t="n">
+        <f aca="false">M6-SUM(N6:P6)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">(P6*K6)/SUM(N6:P6)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">(H7*I7)/J7</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">(L7*M7)/K7</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q7" s="28" t="n">
+        <f aca="false">M7-SUM(N7:P7)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">(P7*K7)/SUM(N7:P7)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">(H8*I8)/J8</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">(L8*M8)/K8</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q8" s="28" t="n">
+        <f aca="false">M8-SUM(N8:P8)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">(P8*K8)/SUM(N8:P8)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="C9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">(H9*I9)/J9</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">(L9*M9)/K9</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q9" s="28" t="n">
+        <f aca="false">M9-SUM(N9:P9)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">(P9*K9)/SUM(N9:P9)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="C10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">(H10*I10)/J10</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">(L10*M10)/K10</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q10" s="28" t="n">
+        <f aca="false">M10-SUM(N10:P10)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">(P10*K10)/SUM(N10:P10)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="C11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">(H11*I11)/J11</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">(L11*M11)/K11</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q11" s="28" t="n">
+        <f aca="false">M11-SUM(N11:P11)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">(P11*K11)/SUM(N11:P11)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="C12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">(H12*I12)/J12</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">(L12*M12)/K12</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q12" s="28" t="n">
+        <f aca="false">M12-SUM(N12:P12)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">(P12*K12)/SUM(N12:P12)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="C13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">(H13*I13)/J13</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">(L13*M13)/K13</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q13" s="28" t="n">
+        <f aca="false">M13-SUM(N13:P13)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">(P13*K13)/SUM(N13:P13)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="C14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">(H14*I14)/J14</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">(L14*M14)/K14</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q14" s="28" t="n">
+        <f aca="false">M14-SUM(N14:P14)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">(P14*K14)/SUM(N14:P14)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="C15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">(H15*I15)/J15</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">(L15*M15)/K15</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q15" s="28" t="n">
+        <f aca="false">M15-SUM(N15:P15)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">(P15*K15)/SUM(N15:P15)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="C16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">(H16*I16)/J16</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">(L16*M16)/K16</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q16" s="28" t="n">
+        <f aca="false">M16-SUM(N16:P16)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">(P16*K16)/SUM(N16:P16)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="C17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">(H17*I17)/J17</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">(L17*M17)/K17</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q17" s="28" t="n">
+        <f aca="false">M17-SUM(N17:P17)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">(P17*K17)/SUM(N17:P17)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="C18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">(H18*I18)/J18</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">(L18*M18)/K18</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q18" s="28" t="n">
+        <f aca="false">M18-SUM(N18:P18)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">(P18*K18)/SUM(N18:P18)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="C19" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">(H19*I19)/J19</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">(L19*M19)/K19</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q19" s="28" t="n">
+        <f aca="false">M19-SUM(N19:P19)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">(P19*K19)/SUM(N19:P19)</f>
+        <v>0.614250614250614</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="P7" s="0" t="s">
+      <c r="C20" s="18" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="P8" s="0" t="s">
+      <c r="D20" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <f aca="false">57 - SUM(E9:P9)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <f aca="false">57 - SUM(E10:P10)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <f aca="false">57 - SUM(E11:P11)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="0" t="n">
-        <f aca="false">57 - SUM(E12:P12)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <f aca="false">57 - SUM(E13:P13)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <f aca="false">57 - SUM(E14:P14)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">57 - SUM(E9:E14)</f>
-        <v>21</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <f aca="false">57 - SUM(F9:F14)</f>
-        <v>21</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <f aca="false">57 - SUM(G9:G14)</f>
-        <v>21</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <f aca="false">57 - SUM(H9:H14)</f>
-        <v>21</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">57 - SUM(I9:I14)</f>
-        <v>21</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">57 - SUM(J9:J14)</f>
-        <v>39</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">57 - SUM(K9:K14)</f>
-        <v>39</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <f aca="false">57 - SUM(L9:L14)</f>
-        <v>39</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <f aca="false">57 - SUM(M9:M14)</f>
-        <v>39</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <f aca="false">57 - SUM(N9:N14)</f>
-        <v>39</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <f aca="false">57 - SUM(O9:O14)</f>
-        <v>39</v>
-      </c>
-      <c r="P15" s="0" t="n">
-        <f aca="false">57 - SUM(P9:P14)</f>
-        <v>39</v>
+      <c r="E20" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">(H20*I20)/J20</f>
+        <v>4.3859649122807</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">12.5+11.5+1</f>
+        <v>25</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">(L20*M20)/K20</f>
+        <v>2.85</v>
+      </c>
+      <c r="Q20" s="28" t="n">
+        <f aca="false">M20-SUM(N20:P20)</f>
+        <v>4.65</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">(P20*K20)/SUM(N20:P20)</f>
+        <v>0.614250614250614</v>
       </c>
     </row>
   </sheetData>
@@ -3022,4 +4435,1204 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="26" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J2" s="30" t="n">
+        <f aca="false">(F2*H2)/I2</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="30" t="n">
+        <f aca="false">H2</f>
+        <v>2</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">J2-H2-K2</f>
+        <v>4</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">(I2*N2)/M2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">(B26*C26)/D26</f>
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">(B30*C30)/D30</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">(C32*D32)/B32</f>
+        <v>12.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ33"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="26" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="26" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">12.5/Q3</f>
+        <v>2.19298245614035</v>
+      </c>
+      <c r="J3" s="30" t="n">
+        <f aca="false">(F3*H3)/I3</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">J3-H3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" s="32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O3" s="32" t="n">
+        <v>5</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">M3-N3-O3</f>
+        <v>7.5</v>
+      </c>
+      <c r="Q3" s="32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">(I3*Q3)/M3</f>
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="32" t="n">
+        <f aca="false">M3-N3-O3-Q3</f>
+        <v>1.8</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">SUM(S3,Q3,O3,N3)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>4.3859649122807</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">(B27*C27)/D27</f>
+        <v>25</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">(B31*C31)/D31</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">(C33*D33)/B33</f>
+        <v>12.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:S1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>